--- a/Grafer/Rådata för grafer.xlsx
+++ b/Grafer/Rådata för grafer.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Agfa Healthcare</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Övriga</t>
+  </si>
+  <si>
+    <t>Totalt</t>
   </si>
 </sst>
 </file>
@@ -2501,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2602,6 +2605,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Grafer/Rådata för grafer.xlsx
+++ b/Grafer/Rådata för grafer.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="multiTimeline" localSheetId="2">Sheet3!$A$1:$D$264</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +28,23 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="multiTimeline" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\Jonathan\Downloads\multiTimeline.csv" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>Agfa Healthcare</t>
   </si>
@@ -140,6 +159,21 @@
   <si>
     <t>Totalt</t>
   </si>
+  <si>
+    <t>Category: All categories</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Disciplined Agile Delivery (Hela världen)</t>
+  </si>
+  <si>
+    <t>Large Scale Scrum (Hela världen)</t>
+  </si>
+  <si>
+    <t>Scaled Agile Framework (Hela världen)</t>
+  </si>
 </sst>
 </file>
 
@@ -174,8 +208,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,6 +814,5126 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sökningar</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disciplined Agile Delivery (Hela världen)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$264</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="261"/>
+                <c:pt idx="0">
+                  <c:v>40762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40790</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40839</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40846</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40853</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40860</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40874</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40881</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40888</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40895</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40930</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40944</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40951</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40965</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40972</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40986</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41035</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41049</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41056</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41063</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41070</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41077</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41084</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41098</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41112</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41119</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41126</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41133</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41140</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41147</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41154</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41168</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41175</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41189</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41196</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41203</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41210</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41217</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41224</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41231</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41238</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41245</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41252</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41259</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41266</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41280</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41287</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41294</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41308</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41315</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41322</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41329</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41336</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41343</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41350</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41357</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41371</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41378</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41385</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41392</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41399</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41406</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41413</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41420</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41427</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41434</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41441</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41448</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41462</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41469</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41476</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41483</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41490</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41497</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41504</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41511</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41525</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41539</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41546</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41553</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41560</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41567</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41574</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41581</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41588</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41595</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41602</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41616</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41630</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41637</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41644</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41651</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41658</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41679</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41686</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41693</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41700</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41707</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41714</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41721</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41728</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41735</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41742</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41749</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41798</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>41959</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>41966</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>41987</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>41994</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42008</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42015</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42043</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42057</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>42099</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42113</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42120</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>42127</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>42134</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>42141</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>42148</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>42162</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>42169</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>42176</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>42183</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>42190</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>42197</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42204</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>42211</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>42218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>42225</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>42253</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>42260</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42267</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>42274</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>42281</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>42288</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>42295</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42302</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42316</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>42330</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>42337</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42344</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42351</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>42358</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>42365</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>42372</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>42379</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>42386</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>42393</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42407</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>42414</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>42421</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>42428</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>42435</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>42442</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>42449</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42456</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>42463</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>42470</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>42477</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>42484</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>42498</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42512</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>42540</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$264</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="261"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-062D-4B1E-84BB-9B66C25D6B25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Large Scale Scrum (Hela världen)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$264</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="261"/>
+                <c:pt idx="0">
+                  <c:v>40762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40790</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40839</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40846</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40853</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40860</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40874</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40881</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40888</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40895</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40930</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40944</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40951</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40965</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40972</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40986</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41035</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41049</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41056</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41063</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41070</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41077</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41084</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41098</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41112</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41119</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41126</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41133</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41140</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41147</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41154</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41168</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41175</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41189</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41196</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41203</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41210</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41217</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41224</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41231</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41238</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41245</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41252</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41259</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41266</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41280</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41287</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41294</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41308</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41315</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41322</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41329</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41336</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41343</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41350</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41357</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41371</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41378</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41385</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41392</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41399</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41406</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41413</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41420</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41427</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41434</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41441</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41448</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41462</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41469</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41476</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41483</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41490</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41497</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41504</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41511</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41525</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41539</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41546</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41553</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41560</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41567</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41574</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41581</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41588</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41595</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41602</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41616</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41630</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41637</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41644</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41651</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41658</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41679</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41686</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41693</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41700</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41707</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41714</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41721</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41728</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41735</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41742</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41749</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41798</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>41959</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>41966</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>41987</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>41994</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42008</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42015</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42043</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42057</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>42099</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42113</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42120</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>42127</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>42134</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>42141</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>42148</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>42162</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>42169</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>42176</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>42183</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>42190</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>42197</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42204</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>42211</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>42218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>42225</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>42253</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>42260</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42267</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>42274</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>42281</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>42288</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>42295</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42302</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42316</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>42330</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>42337</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42344</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42351</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>42358</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>42365</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>42372</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>42379</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>42386</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>42393</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42407</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>42414</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>42421</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>42428</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>42435</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>42442</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>42449</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42456</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>42463</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>42470</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>42477</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>42484</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>42498</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42512</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>42540</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$264</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="261"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-062D-4B1E-84BB-9B66C25D6B25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scaled Agile Framework (Hela världen)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$264</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="261"/>
+                <c:pt idx="0">
+                  <c:v>40762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40790</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40811</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40825</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40839</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40846</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40853</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40860</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40874</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40881</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40888</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40895</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40930</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40944</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40951</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40965</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40972</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40986</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41035</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41049</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41056</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41063</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41070</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41077</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41084</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41098</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41112</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41119</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41126</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41133</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41140</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41147</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41154</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41168</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41175</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41189</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41196</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41203</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41210</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41217</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41224</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41231</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41238</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41245</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41252</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41259</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41266</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41280</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41287</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41294</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41308</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41315</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41322</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41329</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41336</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41343</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41350</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41357</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41371</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41378</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41385</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41392</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41399</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41406</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41413</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41420</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41427</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41434</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41441</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41448</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41462</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41469</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41476</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41483</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41490</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41497</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41504</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41511</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41525</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41539</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41546</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41553</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41560</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41567</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41574</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41581</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41588</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41595</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41602</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41616</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41630</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41637</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41644</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41651</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41658</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41679</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41686</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41693</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41700</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41707</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41714</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41721</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41728</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41735</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41742</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41749</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41798</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>41959</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>41966</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>41987</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>41994</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42008</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42015</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42043</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42057</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>42099</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42113</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42120</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>42127</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>42134</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>42141</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>42148</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>42162</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>42169</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>42176</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>42183</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>42190</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>42197</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42204</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>42211</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>42218</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>42225</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>42253</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>42260</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42267</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>42274</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>42281</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>42288</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>42295</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42302</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42316</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>42330</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>42337</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42344</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42351</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>42358</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>42365</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>42372</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>42379</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>42386</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>42393</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42407</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>42414</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>42421</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>42428</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>42435</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>42442</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>42449</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42456</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>42463</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>42470</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>42477</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>42484</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>42498</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42512</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>42540</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$264</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="261"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-062D-4B1E-84BB-9B66C25D6B25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="409096600"/>
+        <c:axId val="409095288"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="409096600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409095288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="409095288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409096600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -820,6 +5975,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1865,6 +7060,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1966,6 +7677,45 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53972</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226785</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="multiTimeline" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2506,7 +8256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2614,4 +8364,3699 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D264"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>40762</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>40769</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>40776</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>40783</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>40790</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>40797</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>40804</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>40811</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>40818</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>40825</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>40832</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>40839</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>40846</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>40853</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>40860</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>40867</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>40874</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>40881</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>40888</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>40895</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>40902</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>40916</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>40923</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>40930</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>40937</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>40944</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>40951</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>40958</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>40965</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>40972</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>40979</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>40986</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>40993</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>41007</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>41014</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>41021</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>41028</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>41035</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>41042</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>41049</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>41056</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>41063</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>41070</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>41077</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>41084</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>41098</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>41105</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>41112</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>41119</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>41126</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>41133</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>41140</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>41147</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>41154</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>41161</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>41168</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>41175</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>41189</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>41196</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>41203</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>41210</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>41217</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>41224</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>41231</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>41238</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>41245</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>41252</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>41259</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>41266</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>41273</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>41280</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>41287</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>41294</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>41301</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>41308</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>41315</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>41329</v>
+      </c>
+      <c r="B85">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>41336</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>41343</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>41350</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>41357</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>41371</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>41378</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>41385</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>41392</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>41399</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>41406</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>41413</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>41420</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>41427</v>
+      </c>
+      <c r="B99">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>41434</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>41448</v>
+      </c>
+      <c r="B102">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>41462</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>41469</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>41476</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>41483</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>41490</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>41497</v>
+      </c>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>41504</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>41511</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>41525</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>41532</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>41539</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>41546</v>
+      </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>41553</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>41560</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>41567</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>41574</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>41581</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>41588</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>41595</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>41602</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B125">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>41616</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>41623</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>41630</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>41644</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>41651</v>
+      </c>
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>41658</v>
+      </c>
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>6</v>
+      </c>
+      <c r="D132">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>41665</v>
+      </c>
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>41672</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>41679</v>
+      </c>
+      <c r="B135">
+        <v>13</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>41686</v>
+      </c>
+      <c r="B136">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B137">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>41700</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>41707</v>
+      </c>
+      <c r="B139">
+        <v>12</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>41714</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>41721</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>41735</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>41742</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>41749</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>41756</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>41763</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>41770</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>41777</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>41784</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>41798</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>41805</v>
+      </c>
+      <c r="B153">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>41812</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>41826</v>
+      </c>
+      <c r="B156">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>41833</v>
+      </c>
+      <c r="B157">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>41840</v>
+      </c>
+      <c r="B158">
+        <v>12</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>41847</v>
+      </c>
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>7</v>
+      </c>
+      <c r="D159">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>41854</v>
+      </c>
+      <c r="B160">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>41861</v>
+      </c>
+      <c r="B161">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>41868</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>41875</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B164">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>41889</v>
+      </c>
+      <c r="B165">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>41896</v>
+      </c>
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>41903</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B168">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B169">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>41924</v>
+      </c>
+      <c r="B170">
+        <v>10</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>41931</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>41938</v>
+      </c>
+      <c r="B172">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>41945</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>41952</v>
+      </c>
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>41959</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>41966</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B177">
+        <v>10</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>41980</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>41987</v>
+      </c>
+      <c r="B179">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+      <c r="D179">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>41994</v>
+      </c>
+      <c r="B180">
+        <v>8</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>42008</v>
+      </c>
+      <c r="B182">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>42015</v>
+      </c>
+      <c r="B183">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>42022</v>
+      </c>
+      <c r="B184">
+        <v>9</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>42029</v>
+      </c>
+      <c r="B185">
+        <v>9</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B186">
+        <v>9</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>42043</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>4</v>
+      </c>
+      <c r="D187">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>42050</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>42057</v>
+      </c>
+      <c r="B189">
+        <v>12</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>4</v>
+      </c>
+      <c r="D190">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>42071</v>
+      </c>
+      <c r="B191">
+        <v>8</v>
+      </c>
+      <c r="C191">
+        <v>6</v>
+      </c>
+      <c r="D191">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>42078</v>
+      </c>
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>42085</v>
+      </c>
+      <c r="B193">
+        <v>9</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+      <c r="D193">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B194">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>42099</v>
+      </c>
+      <c r="B195">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>42106</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+      <c r="D196">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>42113</v>
+      </c>
+      <c r="B197">
+        <v>10</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>42120</v>
+      </c>
+      <c r="B198">
+        <v>12</v>
+      </c>
+      <c r="C198">
+        <v>4</v>
+      </c>
+      <c r="D198">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>42127</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+      <c r="D199">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>42134</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>42141</v>
+      </c>
+      <c r="B201">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>42148</v>
+      </c>
+      <c r="B202">
+        <v>6</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B203">
+        <v>6</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>42162</v>
+      </c>
+      <c r="B204">
+        <v>11</v>
+      </c>
+      <c r="C204">
+        <v>4</v>
+      </c>
+      <c r="D204">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>42169</v>
+      </c>
+      <c r="B205">
+        <v>11</v>
+      </c>
+      <c r="C205">
+        <v>4</v>
+      </c>
+      <c r="D205">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>42176</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+      <c r="D206">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>6</v>
+      </c>
+      <c r="D207">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>42190</v>
+      </c>
+      <c r="B208">
+        <v>10</v>
+      </c>
+      <c r="C208">
+        <v>6</v>
+      </c>
+      <c r="D208">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>42197</v>
+      </c>
+      <c r="B209">
+        <v>8</v>
+      </c>
+      <c r="C209">
+        <v>9</v>
+      </c>
+      <c r="D209">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>42204</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>42211</v>
+      </c>
+      <c r="B211">
+        <v>10</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>42218</v>
+      </c>
+      <c r="B212">
+        <v>8</v>
+      </c>
+      <c r="C212">
+        <v>4</v>
+      </c>
+      <c r="D212">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>42225</v>
+      </c>
+      <c r="B213">
+        <v>8</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>42232</v>
+      </c>
+      <c r="B214">
+        <v>8</v>
+      </c>
+      <c r="C214">
+        <v>7</v>
+      </c>
+      <c r="D214">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>42239</v>
+      </c>
+      <c r="B215">
+        <v>13</v>
+      </c>
+      <c r="C215">
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>42246</v>
+      </c>
+      <c r="B216">
+        <v>8</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+      <c r="D216">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>42253</v>
+      </c>
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+      <c r="D217">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>42260</v>
+      </c>
+      <c r="B218">
+        <v>3</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+      <c r="D218">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>42267</v>
+      </c>
+      <c r="B219">
+        <v>8</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B220">
+        <v>5</v>
+      </c>
+      <c r="C220">
+        <v>7</v>
+      </c>
+      <c r="D220">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>42281</v>
+      </c>
+      <c r="B221">
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <v>4</v>
+      </c>
+      <c r="D221">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>42288</v>
+      </c>
+      <c r="B222">
+        <v>9</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>42295</v>
+      </c>
+      <c r="B223">
+        <v>7</v>
+      </c>
+      <c r="C223">
+        <v>5</v>
+      </c>
+      <c r="D223">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>42302</v>
+      </c>
+      <c r="B224">
+        <v>5</v>
+      </c>
+      <c r="C224">
+        <v>4</v>
+      </c>
+      <c r="D224">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225">
+        <v>6</v>
+      </c>
+      <c r="D225">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>42316</v>
+      </c>
+      <c r="B226">
+        <v>11</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>42323</v>
+      </c>
+      <c r="B227">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>4</v>
+      </c>
+      <c r="D227">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>42330</v>
+      </c>
+      <c r="B228">
+        <v>15</v>
+      </c>
+      <c r="C228">
+        <v>10</v>
+      </c>
+      <c r="D228">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>42337</v>
+      </c>
+      <c r="B229">
+        <v>7</v>
+      </c>
+      <c r="C229">
+        <v>6</v>
+      </c>
+      <c r="D229">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>42344</v>
+      </c>
+      <c r="B230">
+        <v>7</v>
+      </c>
+      <c r="C230">
+        <v>4</v>
+      </c>
+      <c r="D230">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>42351</v>
+      </c>
+      <c r="B231">
+        <v>11</v>
+      </c>
+      <c r="C231">
+        <v>4</v>
+      </c>
+      <c r="D231">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>42358</v>
+      </c>
+      <c r="B232">
+        <v>9</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>42365</v>
+      </c>
+      <c r="B233">
+        <v>3</v>
+      </c>
+      <c r="C233">
+        <v>6</v>
+      </c>
+      <c r="D233">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>42372</v>
+      </c>
+      <c r="B234">
+        <v>7</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>42379</v>
+      </c>
+      <c r="B235">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>6</v>
+      </c>
+      <c r="D235">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>42386</v>
+      </c>
+      <c r="B236">
+        <v>8</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+      <c r="D236">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>42393</v>
+      </c>
+      <c r="B237">
+        <v>12</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B238">
+        <v>8</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>42407</v>
+      </c>
+      <c r="B239">
+        <v>9</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+      <c r="D239">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>42414</v>
+      </c>
+      <c r="B240">
+        <v>6</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>42421</v>
+      </c>
+      <c r="B241">
+        <v>6</v>
+      </c>
+      <c r="C241">
+        <v>6</v>
+      </c>
+      <c r="D241">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>42428</v>
+      </c>
+      <c r="B242">
+        <v>5</v>
+      </c>
+      <c r="C242">
+        <v>4</v>
+      </c>
+      <c r="D242">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>42435</v>
+      </c>
+      <c r="B243">
+        <v>9</v>
+      </c>
+      <c r="C243">
+        <v>7</v>
+      </c>
+      <c r="D243">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>42442</v>
+      </c>
+      <c r="B244">
+        <v>11</v>
+      </c>
+      <c r="C244">
+        <v>5</v>
+      </c>
+      <c r="D244">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>42449</v>
+      </c>
+      <c r="B245">
+        <v>6</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+      <c r="D245">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>42456</v>
+      </c>
+      <c r="B246">
+        <v>8</v>
+      </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
+      <c r="D246">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>42463</v>
+      </c>
+      <c r="B247">
+        <v>8</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+      <c r="D247">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>42470</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>42477</v>
+      </c>
+      <c r="B249">
+        <v>8</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>42484</v>
+      </c>
+      <c r="B250">
+        <v>9</v>
+      </c>
+      <c r="C250">
+        <v>4</v>
+      </c>
+      <c r="D250">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B251">
+        <v>8</v>
+      </c>
+      <c r="C251">
+        <v>6</v>
+      </c>
+      <c r="D251">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>42498</v>
+      </c>
+      <c r="B252">
+        <v>6</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+      <c r="D252">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>42505</v>
+      </c>
+      <c r="B253">
+        <v>9</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>42512</v>
+      </c>
+      <c r="B254">
+        <v>9</v>
+      </c>
+      <c r="C254">
+        <v>2</v>
+      </c>
+      <c r="D254">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>42519</v>
+      </c>
+      <c r="B255">
+        <v>6</v>
+      </c>
+      <c r="C255">
+        <v>4</v>
+      </c>
+      <c r="D255">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>42526</v>
+      </c>
+      <c r="B256">
+        <v>22</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>42533</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>42540</v>
+      </c>
+      <c r="B258">
+        <v>10</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>42547</v>
+      </c>
+      <c r="B259">
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+      <c r="D259">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B260">
+        <v>7</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>42561</v>
+      </c>
+      <c r="B261">
+        <v>8</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>42568</v>
+      </c>
+      <c r="B262">
+        <v>7</v>
+      </c>
+      <c r="C262">
+        <v>6</v>
+      </c>
+      <c r="D262">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>42575</v>
+      </c>
+      <c r="B263">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B264">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>4</v>
+      </c>
+      <c r="D264">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Grafer/Rådata för grafer.xlsx
+++ b/Grafer/Rådata för grafer.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Rådata för brancher" sheetId="1" r:id="rId1"/>
+    <sheet name="Brancher" sheetId="2" r:id="rId2"/>
+    <sheet name="Google stats" sheetId="3" r:id="rId3"/>
+    <sheet name="VersionOne" sheetId="5" r:id="rId4"/>
+    <sheet name="ASK Matrix" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="multiTimeline" localSheetId="2">Sheet3!$A$1:$D$264</definedName>
+    <definedName name="multiTimeline" localSheetId="2">'Google stats'!$A$1:$D$264</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>Agfa Healthcare</t>
   </si>
@@ -174,13 +176,77 @@
   <si>
     <t>Scaled Agile Framework (Hela världen)</t>
   </si>
+  <si>
+    <t>Scrum of Scums</t>
+  </si>
+  <si>
+    <t>Interna metoder</t>
+  </si>
+  <si>
+    <t>Lean management</t>
+  </si>
+  <si>
+    <t>Enterprise Agile</t>
+  </si>
+  <si>
+    <t>Enterprise Scrum</t>
+  </si>
+  <si>
+    <t>Agile portfolio Mngmt</t>
+  </si>
+  <si>
+    <t>DAD</t>
+  </si>
+  <si>
+    <t>Kostnad</t>
+  </si>
+  <si>
+    <t>Låg</t>
+  </si>
+  <si>
+    <t>Hög</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Dokumenterad</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>SoS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -205,15 +271,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,7 +355,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>Brancher!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -305,7 +376,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:f>Brancher!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -328,7 +399,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:f>Brancher!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -577,7 +648,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$9</c:f>
+              <c:f>Brancher!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -598,7 +669,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$10:$A$14</c:f>
+              <c:f>Brancher!$A$10:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -621,7 +692,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$B$14</c:f>
+              <c:f>Brancher!$B$10:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -894,7 +965,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$3</c:f>
+              <c:f>'Google stats'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -917,7 +988,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$4:$A$264</c:f>
+              <c:f>'Google stats'!$A$4:$A$264</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="261"/>
@@ -1709,7 +1780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$4:$B$264</c:f>
+              <c:f>'Google stats'!$B$4:$B$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="261"/>
@@ -2511,7 +2582,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$3</c:f>
+              <c:f>'Google stats'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2534,7 +2605,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$4:$A$264</c:f>
+              <c:f>'Google stats'!$A$4:$A$264</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="261"/>
@@ -3326,7 +3397,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$4:$C$264</c:f>
+              <c:f>'Google stats'!$C$4:$C$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="261"/>
@@ -4128,7 +4199,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$D$3</c:f>
+              <c:f>'Google stats'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4151,7 +4222,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$A$4:$A$264</c:f>
+              <c:f>'Google stats'!$A$4:$A$264</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="261"/>
@@ -4943,7 +5014,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$4:$D$264</c:f>
+              <c:f>'Google stats'!$D$4:$D$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="261"/>
@@ -5934,6 +6005,461 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Adoption enligt Version One 10th Annual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Report</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-A5CC-456D-B26D-F938E1DAD705}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-A5CC-456D-B26D-F938E1DAD705}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-A5CC-456D-B26D-F938E1DAD705}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>VersionOne!$A$1:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Scrum of Scums</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SAFe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Interna metoder</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Lean management</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Enterprise Agile</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Enterprise Scrum</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Agile portfolio Mngmt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LeSS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DAD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VersionOne!$B$1:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5CC-456D-B26D-F938E1DAD705}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="437931008"/>
+        <c:axId val="437931336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="437931008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437931336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437931336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437931008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6015,6 +6541,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7576,6 +8142,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7693,6 +8762,41 @@
       <xdr:colOff>226785</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>206374</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8370,7 +9474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -12059,4 +13163,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Grafer/Rådata för grafer.xlsx
+++ b/Grafer/Rådata för grafer.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rådata för brancher" sheetId="1" r:id="rId1"/>
     <sheet name="Brancher" sheetId="2" r:id="rId2"/>
-    <sheet name="Google stats" sheetId="3" r:id="rId3"/>
-    <sheet name="VersionOne" sheetId="5" r:id="rId4"/>
-    <sheet name="ASK Matrix" sheetId="6" r:id="rId5"/>
+    <sheet name="Google stats alla" sheetId="3" r:id="rId3"/>
+    <sheet name="Google stats dad &amp; less" sheetId="7" r:id="rId4"/>
+    <sheet name="VersionOne" sheetId="5" r:id="rId5"/>
+    <sheet name="ASK Matrix" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="multiTimeline" localSheetId="2">'Google stats'!$A$1:$D$264</definedName>
+    <definedName name="multiTimeline" localSheetId="2">'Google stats alla'!$A$1:$D$264</definedName>
+    <definedName name="multiTimeline__1" localSheetId="3">'Google stats dad &amp; less'!$A$1:$C$264</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -42,11 +44,20 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="multiTimeline (1)" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\Jonathan\Downloads\multiTimeline (1).csv" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Agfa Healthcare</t>
   </si>
@@ -217,6 +228,12 @@
   </si>
   <si>
     <t>SoS</t>
+  </si>
+  <si>
+    <t>Disciplined Agile Delivery: (Hela världen)</t>
+  </si>
+  <si>
+    <t>Large Scale Scrum: (Hela världen)</t>
   </si>
 </sst>
 </file>
@@ -920,7 +937,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Sökningar</a:t>
+              <a:t>Google Sökningar</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -965,7 +982,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Google stats'!$B$3</c:f>
+              <c:f>'Google stats alla'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -988,7 +1005,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Google stats'!$A$4:$A$264</c:f>
+              <c:f>'Google stats alla'!$A$4:$A$264</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="261"/>
@@ -1780,7 +1797,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Google stats'!$B$4:$B$264</c:f>
+              <c:f>'Google stats alla'!$B$4:$B$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="261"/>
@@ -2582,7 +2599,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Google stats'!$C$3</c:f>
+              <c:f>'Google stats alla'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2605,7 +2622,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Google stats'!$A$4:$A$264</c:f>
+              <c:f>'Google stats alla'!$A$4:$A$264</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="261"/>
@@ -3397,7 +3414,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Google stats'!$C$4:$C$264</c:f>
+              <c:f>'Google stats alla'!$C$4:$C$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="261"/>
@@ -4199,7 +4216,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Google stats'!$D$3</c:f>
+              <c:f>'Google stats alla'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4222,7 +4239,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Google stats'!$A$4:$A$264</c:f>
+              <c:f>'Google stats alla'!$A$4:$A$264</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="261"/>
@@ -5014,7 +5031,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Google stats'!$D$4:$D$264</c:f>
+              <c:f>'Google stats alla'!$D$4:$D$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="261"/>
@@ -6006,6 +6023,3509 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Google Sökningar</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Google stats dad &amp; less'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disciplined Agile Delivery: (Hela världen)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Google stats dad &amp; less'!$A$4:$A$264</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="261"/>
+                <c:pt idx="0">
+                  <c:v>40769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40790</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40825</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40832</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40839</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40853</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40860</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40874</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40881</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40902</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40916</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40930</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40944</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40951</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40958</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40965</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40972</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40979</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40986</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41028</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41035</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41056</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41063</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41070</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41077</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41084</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41112</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41119</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41126</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41133</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41140</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41147</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41154</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41161</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41168</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41175</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41189</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41196</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41203</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41210</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41217</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41224</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41231</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41238</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41245</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41252</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41259</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41266</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41280</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41287</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41294</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41308</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41315</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41322</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41329</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41336</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41343</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41350</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41357</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41371</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41378</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41385</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41392</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41399</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41406</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41413</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41420</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41427</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41434</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41441</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41448</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41462</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41469</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41476</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41483</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41490</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41497</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41504</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41511</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41525</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41539</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41546</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41553</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41560</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41567</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41574</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41581</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41588</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41595</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41602</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41616</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41630</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41637</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41644</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41651</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41658</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41679</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41686</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41693</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41700</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41707</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41714</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41721</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41728</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41735</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41742</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41749</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>41798</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>41959</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>41966</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>41987</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>41994</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42008</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42015</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42043</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42057</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42099</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>42113</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42120</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42127</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>42134</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>42141</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>42148</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>42162</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>42169</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>42176</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>42183</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>42190</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>42197</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>42204</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42211</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>42218</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>42225</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>42253</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>42260</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>42267</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42274</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>42281</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>42288</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>42295</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>42302</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42316</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42330</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>42337</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>42344</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42351</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42358</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>42365</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>42372</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>42379</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>42386</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>42393</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>42407</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42414</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>42421</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>42428</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>42435</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>42442</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>42449</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>42456</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42463</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>42470</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>42477</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>42484</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>42498</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>42512</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>42540</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google stats dad &amp; less'!$B$4:$B$264</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="261"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-61CC-4F1F-A620-25DC11C43E06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Google stats dad &amp; less'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Large Scale Scrum: (Hela världen)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Google stats dad &amp; less'!$A$4:$A$264</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="261"/>
+                <c:pt idx="0">
+                  <c:v>40769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40790</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40818</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40825</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40832</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40839</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40853</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40860</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40874</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40881</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40902</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40909</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40916</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40923</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40930</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40937</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40944</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40951</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40958</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40965</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40972</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40979</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40986</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40993</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41007</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41028</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41035</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41042</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41049</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41056</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41063</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41070</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41077</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41084</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41091</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41112</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>41119</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41126</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41133</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>41140</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>41147</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41154</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41161</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>41168</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41175</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41182</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41189</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41196</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41203</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41210</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41217</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41224</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>41231</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41238</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>41245</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41252</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41259</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41266</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>41273</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41280</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41287</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>41294</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>41301</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41308</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41315</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41322</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41329</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41336</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41343</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41350</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41357</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41364</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>41371</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>41378</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>41385</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>41392</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>41399</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>41406</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>41413</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41420</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41427</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41434</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41441</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41448</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41455</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41462</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41469</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41476</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41483</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41490</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41497</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>41504</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>41511</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41525</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>41532</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41539</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41546</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41553</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41560</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>41567</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>41574</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>41581</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>41588</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>41595</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>41602</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>41616</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>41623</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>41630</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>41637</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41644</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>41651</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>41658</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41672</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41679</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41686</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41693</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>41700</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>41707</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>41714</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>41721</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>41728</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41735</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>41742</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>41749</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41756</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41763</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>41770</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>41777</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>41784</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>41798</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41805</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>41812</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>41819</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>41826</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41833</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41840</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>41847</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>41854</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>41861</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>41868</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>41875</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>41882</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>41889</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>41896</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41903</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>41910</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>41917</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41924</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>41931</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>41938</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>41945</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>41952</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>41959</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>41966</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>41973</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>41980</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>41987</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>41994</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42008</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42015</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42043</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42057</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42071</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42078</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42085</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42092</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42099</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>42106</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>42113</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42120</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42127</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>42134</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>42141</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>42148</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>42155</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>42162</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>42169</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>42176</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>42183</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>42190</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>42197</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>42204</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42211</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>42218</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>42225</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>42232</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>42239</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>42246</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>42253</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>42260</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>42267</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42274</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>42281</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>42288</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>42295</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>42302</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42316</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42323</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42330</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>42337</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>42344</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42351</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42358</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>42365</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>42372</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>42379</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>42386</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>42393</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>42407</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42414</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>42421</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>42428</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>42435</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>42442</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>42449</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>42456</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42463</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>42470</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>42477</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>42484</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>42498</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>42512</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>42540</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google stats dad &amp; less'!$C$4:$C$264</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="261"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-61CC-4F1F-A620-25DC11C43E06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="420671640"/>
+        <c:axId val="420669672"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="420671640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420669672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="420669672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420671640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6581,6 +10101,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8143,6 +11703,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8787,6 +12863,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>346071</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>577421</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>150349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>206374</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -8820,6 +12931,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="multiTimeline" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="multiTimeline (1)" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9474,7 +13589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D264"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -13166,6 +17281,2914 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C264"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>40769</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>40776</v>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>40783</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>40790</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>40797</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>40804</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>40811</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>40818</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>40825</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>40832</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>40839</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>40846</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>40853</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>40860</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>40867</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>40874</v>
+      </c>
+      <c r="B19">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>40881</v>
+      </c>
+      <c r="B20">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>40888</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>40895</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>40902</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>40916</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>40923</v>
+      </c>
+      <c r="B26">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>40930</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>40937</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>40944</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>40951</v>
+      </c>
+      <c r="B30">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>40958</v>
+      </c>
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>40965</v>
+      </c>
+      <c r="B32">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>40972</v>
+      </c>
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>40979</v>
+      </c>
+      <c r="B34">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>40986</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>40993</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B37">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>41007</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>41014</v>
+      </c>
+      <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>41021</v>
+      </c>
+      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>41028</v>
+      </c>
+      <c r="B41">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>41035</v>
+      </c>
+      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>41042</v>
+      </c>
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>41049</v>
+      </c>
+      <c r="B44">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>41056</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>41063</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>41070</v>
+      </c>
+      <c r="B47">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>41077</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>41084</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B50">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>41098</v>
+      </c>
+      <c r="B51">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>41105</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>41112</v>
+      </c>
+      <c r="B53">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>41119</v>
+      </c>
+      <c r="B54">
+        <v>45</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>41126</v>
+      </c>
+      <c r="B55">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>41133</v>
+      </c>
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>41140</v>
+      </c>
+      <c r="B57">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>41147</v>
+      </c>
+      <c r="B58">
+        <v>44</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>41154</v>
+      </c>
+      <c r="B59">
+        <v>44</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>41161</v>
+      </c>
+      <c r="B60">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>41168</v>
+      </c>
+      <c r="B61">
+        <v>32</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>41175</v>
+      </c>
+      <c r="B62">
+        <v>28</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>41189</v>
+      </c>
+      <c r="B64">
+        <v>41</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>41196</v>
+      </c>
+      <c r="B65">
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>41203</v>
+      </c>
+      <c r="B66">
+        <v>61</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>41210</v>
+      </c>
+      <c r="B67">
+        <v>61</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>41217</v>
+      </c>
+      <c r="B68">
+        <v>53</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>41224</v>
+      </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>41231</v>
+      </c>
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>41238</v>
+      </c>
+      <c r="B71">
+        <v>32</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>41245</v>
+      </c>
+      <c r="B72">
+        <v>26</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>41252</v>
+      </c>
+      <c r="B73">
+        <v>39</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>41259</v>
+      </c>
+      <c r="B74">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>41266</v>
+      </c>
+      <c r="B75">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>41273</v>
+      </c>
+      <c r="B76">
+        <v>42</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>41280</v>
+      </c>
+      <c r="B77">
+        <v>47</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>41287</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>41294</v>
+      </c>
+      <c r="B79">
+        <v>47</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>41301</v>
+      </c>
+      <c r="B80">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>41308</v>
+      </c>
+      <c r="B81">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>41315</v>
+      </c>
+      <c r="B82">
+        <v>44</v>
+      </c>
+      <c r="C82">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>41322</v>
+      </c>
+      <c r="B83">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>41329</v>
+      </c>
+      <c r="B84">
+        <v>55</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>41336</v>
+      </c>
+      <c r="B85">
+        <v>45</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>41343</v>
+      </c>
+      <c r="B86">
+        <v>45</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>41350</v>
+      </c>
+      <c r="B87">
+        <v>48</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>41357</v>
+      </c>
+      <c r="B88">
+        <v>31</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B89">
+        <v>61</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>41371</v>
+      </c>
+      <c r="B90">
+        <v>41</v>
+      </c>
+      <c r="C90">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>41378</v>
+      </c>
+      <c r="B91">
+        <v>45</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>41385</v>
+      </c>
+      <c r="B92">
+        <v>55</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>41392</v>
+      </c>
+      <c r="B93">
+        <v>37</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>41399</v>
+      </c>
+      <c r="B94">
+        <v>28</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>41406</v>
+      </c>
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>41413</v>
+      </c>
+      <c r="B96">
+        <v>35</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>41420</v>
+      </c>
+      <c r="B97">
+        <v>48</v>
+      </c>
+      <c r="C97">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>41427</v>
+      </c>
+      <c r="B98">
+        <v>42</v>
+      </c>
+      <c r="C98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>41434</v>
+      </c>
+      <c r="B99">
+        <v>27</v>
+      </c>
+      <c r="C99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>41441</v>
+      </c>
+      <c r="B100">
+        <v>36</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>41448</v>
+      </c>
+      <c r="B101">
+        <v>36</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B102">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>41462</v>
+      </c>
+      <c r="B103">
+        <v>31</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>41469</v>
+      </c>
+      <c r="B104">
+        <v>27</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>41476</v>
+      </c>
+      <c r="B105">
+        <v>25</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>41483</v>
+      </c>
+      <c r="B106">
+        <v>37</v>
+      </c>
+      <c r="C106">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>41490</v>
+      </c>
+      <c r="B107">
+        <v>37</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>41497</v>
+      </c>
+      <c r="B108">
+        <v>37</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>41504</v>
+      </c>
+      <c r="B109">
+        <v>27</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>41511</v>
+      </c>
+      <c r="B110">
+        <v>26</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B111">
+        <v>35</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>41525</v>
+      </c>
+      <c r="B112">
+        <v>51</v>
+      </c>
+      <c r="C112">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>41532</v>
+      </c>
+      <c r="B113">
+        <v>17</v>
+      </c>
+      <c r="C113">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>41539</v>
+      </c>
+      <c r="B114">
+        <v>43</v>
+      </c>
+      <c r="C114">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>41546</v>
+      </c>
+      <c r="B115">
+        <v>34</v>
+      </c>
+      <c r="C115">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>41553</v>
+      </c>
+      <c r="B116">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>41560</v>
+      </c>
+      <c r="B117">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>41567</v>
+      </c>
+      <c r="B118">
+        <v>33</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>41574</v>
+      </c>
+      <c r="B119">
+        <v>28</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>41581</v>
+      </c>
+      <c r="B120">
+        <v>33</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>41588</v>
+      </c>
+      <c r="B121">
+        <v>44</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>41595</v>
+      </c>
+      <c r="B122">
+        <v>16</v>
+      </c>
+      <c r="C122">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>41602</v>
+      </c>
+      <c r="B123">
+        <v>17</v>
+      </c>
+      <c r="C123">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B124">
+        <v>33</v>
+      </c>
+      <c r="C124">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>41616</v>
+      </c>
+      <c r="B125">
+        <v>33</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>41623</v>
+      </c>
+      <c r="B126">
+        <v>34</v>
+      </c>
+      <c r="C126">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>41630</v>
+      </c>
+      <c r="B127">
+        <v>19</v>
+      </c>
+      <c r="C127">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B128">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>41644</v>
+      </c>
+      <c r="B129">
+        <v>32</v>
+      </c>
+      <c r="C129">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>41651</v>
+      </c>
+      <c r="B130">
+        <v>32</v>
+      </c>
+      <c r="C130">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>41658</v>
+      </c>
+      <c r="B131">
+        <v>47</v>
+      </c>
+      <c r="C131">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>41665</v>
+      </c>
+      <c r="B132">
+        <v>37</v>
+      </c>
+      <c r="C132">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>41672</v>
+      </c>
+      <c r="B133">
+        <v>28</v>
+      </c>
+      <c r="C133">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>41679</v>
+      </c>
+      <c r="B134">
+        <v>52</v>
+      </c>
+      <c r="C134">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>41686</v>
+      </c>
+      <c r="B135">
+        <v>26</v>
+      </c>
+      <c r="C135">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B136">
+        <v>47</v>
+      </c>
+      <c r="C136">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>41700</v>
+      </c>
+      <c r="B137">
+        <v>16</v>
+      </c>
+      <c r="C137">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>41707</v>
+      </c>
+      <c r="B138">
+        <v>31</v>
+      </c>
+      <c r="C138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>41714</v>
+      </c>
+      <c r="B139">
+        <v>62</v>
+      </c>
+      <c r="C139">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>41721</v>
+      </c>
+      <c r="B140">
+        <v>21</v>
+      </c>
+      <c r="C140">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B141">
+        <v>42</v>
+      </c>
+      <c r="C141">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>41735</v>
+      </c>
+      <c r="B142">
+        <v>21</v>
+      </c>
+      <c r="C142">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>41742</v>
+      </c>
+      <c r="B143">
+        <v>27</v>
+      </c>
+      <c r="C143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>41749</v>
+      </c>
+      <c r="B144">
+        <v>24</v>
+      </c>
+      <c r="C144">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>41756</v>
+      </c>
+      <c r="B145">
+        <v>32</v>
+      </c>
+      <c r="C145">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>41763</v>
+      </c>
+      <c r="B146">
+        <v>32</v>
+      </c>
+      <c r="C146">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>41770</v>
+      </c>
+      <c r="B147">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>41777</v>
+      </c>
+      <c r="B148">
+        <v>25</v>
+      </c>
+      <c r="C148">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>41784</v>
+      </c>
+      <c r="B149">
+        <v>35</v>
+      </c>
+      <c r="C149">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B150">
+        <v>29</v>
+      </c>
+      <c r="C150">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>41798</v>
+      </c>
+      <c r="B151">
+        <v>59</v>
+      </c>
+      <c r="C151">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>41805</v>
+      </c>
+      <c r="B152">
+        <v>71</v>
+      </c>
+      <c r="C152">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>41812</v>
+      </c>
+      <c r="B153">
+        <v>35</v>
+      </c>
+      <c r="C153">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B154">
+        <v>27</v>
+      </c>
+      <c r="C154">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>41826</v>
+      </c>
+      <c r="B155">
+        <v>30</v>
+      </c>
+      <c r="C155">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>41833</v>
+      </c>
+      <c r="B156">
+        <v>42</v>
+      </c>
+      <c r="C156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>41840</v>
+      </c>
+      <c r="B157">
+        <v>42</v>
+      </c>
+      <c r="C157">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>41847</v>
+      </c>
+      <c r="B158">
+        <v>18</v>
+      </c>
+      <c r="C158">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>41854</v>
+      </c>
+      <c r="B159">
+        <v>44</v>
+      </c>
+      <c r="C159">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>41861</v>
+      </c>
+      <c r="B160">
+        <v>27</v>
+      </c>
+      <c r="C160">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>41868</v>
+      </c>
+      <c r="B161">
+        <v>44</v>
+      </c>
+      <c r="C161">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>41875</v>
+      </c>
+      <c r="B162">
+        <v>34</v>
+      </c>
+      <c r="C162">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B163">
+        <v>34</v>
+      </c>
+      <c r="C163">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>41889</v>
+      </c>
+      <c r="B164">
+        <v>50</v>
+      </c>
+      <c r="C164">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>41896</v>
+      </c>
+      <c r="B165">
+        <v>100</v>
+      </c>
+      <c r="C165">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>41903</v>
+      </c>
+      <c r="B166">
+        <v>28</v>
+      </c>
+      <c r="C166">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B167">
+        <v>25</v>
+      </c>
+      <c r="C167">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>41917</v>
+      </c>
+      <c r="B168">
+        <v>27</v>
+      </c>
+      <c r="C168">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>41924</v>
+      </c>
+      <c r="B169">
+        <v>38</v>
+      </c>
+      <c r="C169">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>41931</v>
+      </c>
+      <c r="B170">
+        <v>40</v>
+      </c>
+      <c r="C170">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>41938</v>
+      </c>
+      <c r="B171">
+        <v>16</v>
+      </c>
+      <c r="C171">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>41945</v>
+      </c>
+      <c r="B172">
+        <v>48</v>
+      </c>
+      <c r="C172">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>41952</v>
+      </c>
+      <c r="B173">
+        <v>71</v>
+      </c>
+      <c r="C173">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>41959</v>
+      </c>
+      <c r="B174">
+        <v>56</v>
+      </c>
+      <c r="C174">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>41966</v>
+      </c>
+      <c r="B175">
+        <v>37</v>
+      </c>
+      <c r="C175">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B176">
+        <v>63</v>
+      </c>
+      <c r="C176">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>41980</v>
+      </c>
+      <c r="B177">
+        <v>42</v>
+      </c>
+      <c r="C177">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>41987</v>
+      </c>
+      <c r="B178">
+        <v>32</v>
+      </c>
+      <c r="C178">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>41994</v>
+      </c>
+      <c r="B179">
+        <v>45</v>
+      </c>
+      <c r="C179">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B180">
+        <v>26</v>
+      </c>
+      <c r="C180">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>42008</v>
+      </c>
+      <c r="B181">
+        <v>41</v>
+      </c>
+      <c r="C181">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>42015</v>
+      </c>
+      <c r="B182">
+        <v>56</v>
+      </c>
+      <c r="C182">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>42022</v>
+      </c>
+      <c r="B183">
+        <v>40</v>
+      </c>
+      <c r="C183">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>42029</v>
+      </c>
+      <c r="B184">
+        <v>45</v>
+      </c>
+      <c r="C184">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B185">
+        <v>35</v>
+      </c>
+      <c r="C185">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>42043</v>
+      </c>
+      <c r="B186">
+        <v>30</v>
+      </c>
+      <c r="C186">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>42050</v>
+      </c>
+      <c r="B187">
+        <v>51</v>
+      </c>
+      <c r="C187">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>42057</v>
+      </c>
+      <c r="B188">
+        <v>84</v>
+      </c>
+      <c r="C188">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B189">
+        <v>22</v>
+      </c>
+      <c r="C189">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>42071</v>
+      </c>
+      <c r="B190">
+        <v>35</v>
+      </c>
+      <c r="C190">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>42078</v>
+      </c>
+      <c r="B191">
+        <v>44</v>
+      </c>
+      <c r="C191">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>42085</v>
+      </c>
+      <c r="B192">
+        <v>40</v>
+      </c>
+      <c r="C192">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B193">
+        <v>23</v>
+      </c>
+      <c r="C193">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>42099</v>
+      </c>
+      <c r="B194">
+        <v>51</v>
+      </c>
+      <c r="C194">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>42106</v>
+      </c>
+      <c r="B195">
+        <v>37</v>
+      </c>
+      <c r="C195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>42113</v>
+      </c>
+      <c r="B196">
+        <v>79</v>
+      </c>
+      <c r="C196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>42120</v>
+      </c>
+      <c r="B197">
+        <v>25</v>
+      </c>
+      <c r="C197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>42127</v>
+      </c>
+      <c r="B198">
+        <v>22</v>
+      </c>
+      <c r="C198">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>42134</v>
+      </c>
+      <c r="B199">
+        <v>30</v>
+      </c>
+      <c r="C199">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>42141</v>
+      </c>
+      <c r="B200">
+        <v>44</v>
+      </c>
+      <c r="C200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>42148</v>
+      </c>
+      <c r="B201">
+        <v>50</v>
+      </c>
+      <c r="C201">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B202">
+        <v>23</v>
+      </c>
+      <c r="C202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>42162</v>
+      </c>
+      <c r="B203">
+        <v>50</v>
+      </c>
+      <c r="C203">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>42169</v>
+      </c>
+      <c r="B204">
+        <v>40</v>
+      </c>
+      <c r="C204">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>42176</v>
+      </c>
+      <c r="B205">
+        <v>45</v>
+      </c>
+      <c r="C205">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B206">
+        <v>30</v>
+      </c>
+      <c r="C206">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>42190</v>
+      </c>
+      <c r="B207">
+        <v>65</v>
+      </c>
+      <c r="C207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>42197</v>
+      </c>
+      <c r="B208">
+        <v>25</v>
+      </c>
+      <c r="C208">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>42204</v>
+      </c>
+      <c r="B209">
+        <v>31</v>
+      </c>
+      <c r="C209">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>42211</v>
+      </c>
+      <c r="B210">
+        <v>15</v>
+      </c>
+      <c r="C210">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>42218</v>
+      </c>
+      <c r="B211">
+        <v>53</v>
+      </c>
+      <c r="C211">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>42225</v>
+      </c>
+      <c r="B212">
+        <v>55</v>
+      </c>
+      <c r="C212">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>42232</v>
+      </c>
+      <c r="B213">
+        <v>44</v>
+      </c>
+      <c r="C213">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>42239</v>
+      </c>
+      <c r="B214">
+        <v>53</v>
+      </c>
+      <c r="C214">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>42246</v>
+      </c>
+      <c r="B215">
+        <v>33</v>
+      </c>
+      <c r="C215">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>42253</v>
+      </c>
+      <c r="B216">
+        <v>43</v>
+      </c>
+      <c r="C216">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>42260</v>
+      </c>
+      <c r="B217">
+        <v>24</v>
+      </c>
+      <c r="C217">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>42267</v>
+      </c>
+      <c r="B218">
+        <v>29</v>
+      </c>
+      <c r="C218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B219">
+        <v>37</v>
+      </c>
+      <c r="C219">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>42281</v>
+      </c>
+      <c r="B220">
+        <v>37</v>
+      </c>
+      <c r="C220">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>42288</v>
+      </c>
+      <c r="B221">
+        <v>42</v>
+      </c>
+      <c r="C221">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>42295</v>
+      </c>
+      <c r="B222">
+        <v>37</v>
+      </c>
+      <c r="C222">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>42302</v>
+      </c>
+      <c r="B223">
+        <v>70</v>
+      </c>
+      <c r="C223">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B224">
+        <v>28</v>
+      </c>
+      <c r="C224">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>42316</v>
+      </c>
+      <c r="B225">
+        <v>79</v>
+      </c>
+      <c r="C225">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>42323</v>
+      </c>
+      <c r="B226">
+        <v>55</v>
+      </c>
+      <c r="C226">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>42330</v>
+      </c>
+      <c r="B227">
+        <v>56</v>
+      </c>
+      <c r="C227">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>42337</v>
+      </c>
+      <c r="B228">
+        <v>36</v>
+      </c>
+      <c r="C228">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>42344</v>
+      </c>
+      <c r="B229">
+        <v>37</v>
+      </c>
+      <c r="C229">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="1">
+        <v>42351</v>
+      </c>
+      <c r="B230">
+        <v>52</v>
+      </c>
+      <c r="C230">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="1">
+        <v>42358</v>
+      </c>
+      <c r="B231">
+        <v>42</v>
+      </c>
+      <c r="C231">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="1">
+        <v>42365</v>
+      </c>
+      <c r="B232">
+        <v>15</v>
+      </c>
+      <c r="C232">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="1">
+        <v>42372</v>
+      </c>
+      <c r="B233">
+        <v>23</v>
+      </c>
+      <c r="C233">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="1">
+        <v>42379</v>
+      </c>
+      <c r="B234">
+        <v>45</v>
+      </c>
+      <c r="C234">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" s="1">
+        <v>42386</v>
+      </c>
+      <c r="B235">
+        <v>49</v>
+      </c>
+      <c r="C235">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="1">
+        <v>42393</v>
+      </c>
+      <c r="B236">
+        <v>67</v>
+      </c>
+      <c r="C236">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B237">
+        <v>39</v>
+      </c>
+      <c r="C237">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="1">
+        <v>42407</v>
+      </c>
+      <c r="B238">
+        <v>52</v>
+      </c>
+      <c r="C238">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="1">
+        <v>42414</v>
+      </c>
+      <c r="B239">
+        <v>34</v>
+      </c>
+      <c r="C239">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="1">
+        <v>42421</v>
+      </c>
+      <c r="B240">
+        <v>45</v>
+      </c>
+      <c r="C240">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="1">
+        <v>42428</v>
+      </c>
+      <c r="B241">
+        <v>25</v>
+      </c>
+      <c r="C241">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="1">
+        <v>42435</v>
+      </c>
+      <c r="B242">
+        <v>42</v>
+      </c>
+      <c r="C242">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" s="1">
+        <v>42442</v>
+      </c>
+      <c r="B243">
+        <v>26</v>
+      </c>
+      <c r="C243">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" s="1">
+        <v>42449</v>
+      </c>
+      <c r="B244">
+        <v>39</v>
+      </c>
+      <c r="C244">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" s="1">
+        <v>42456</v>
+      </c>
+      <c r="B245">
+        <v>34</v>
+      </c>
+      <c r="C245">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" s="1">
+        <v>42463</v>
+      </c>
+      <c r="B246">
+        <v>51</v>
+      </c>
+      <c r="C246">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="1">
+        <v>42470</v>
+      </c>
+      <c r="B247">
+        <v>64</v>
+      </c>
+      <c r="C247">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" s="1">
+        <v>42477</v>
+      </c>
+      <c r="B248">
+        <v>30</v>
+      </c>
+      <c r="C248">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" s="1">
+        <v>42484</v>
+      </c>
+      <c r="B249">
+        <v>68</v>
+      </c>
+      <c r="C249">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B250">
+        <v>43</v>
+      </c>
+      <c r="C250">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" s="1">
+        <v>42498</v>
+      </c>
+      <c r="B251">
+        <v>34</v>
+      </c>
+      <c r="C251">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="1">
+        <v>42505</v>
+      </c>
+      <c r="B252">
+        <v>38</v>
+      </c>
+      <c r="C252">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" s="1">
+        <v>42512</v>
+      </c>
+      <c r="B253">
+        <v>78</v>
+      </c>
+      <c r="C253">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="1">
+        <v>42519</v>
+      </c>
+      <c r="B254">
+        <v>35</v>
+      </c>
+      <c r="C254">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" s="1">
+        <v>42526</v>
+      </c>
+      <c r="B255">
+        <v>52</v>
+      </c>
+      <c r="C255">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="1">
+        <v>42533</v>
+      </c>
+      <c r="B256">
+        <v>30</v>
+      </c>
+      <c r="C256">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="1">
+        <v>42540</v>
+      </c>
+      <c r="B257">
+        <v>39</v>
+      </c>
+      <c r="C257">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="1">
+        <v>42547</v>
+      </c>
+      <c r="B258">
+        <v>90</v>
+      </c>
+      <c r="C258">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B259">
+        <v>36</v>
+      </c>
+      <c r="C259">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="1">
+        <v>42561</v>
+      </c>
+      <c r="B260">
+        <v>17</v>
+      </c>
+      <c r="C260">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="1">
+        <v>42568</v>
+      </c>
+      <c r="B261">
+        <v>40</v>
+      </c>
+      <c r="C261">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="1">
+        <v>42575</v>
+      </c>
+      <c r="B262">
+        <v>33</v>
+      </c>
+      <c r="C262">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B263">
+        <v>33</v>
+      </c>
+      <c r="C263">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="1">
+        <v>42589</v>
+      </c>
+      <c r="B264">
+        <v>23</v>
+      </c>
+      <c r="C264">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -13257,12 +20280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Grafer/Rådata för grafer.xlsx
+++ b/Grafer/Rådata för grafer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rådata för brancher" sheetId="1" r:id="rId1"/>
@@ -12865,14 +12865,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>346071</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180971</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>577421</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>150349</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13589,8 +13589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="C2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17284,8 +17284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Grafer/Rådata för grafer.xlsx
+++ b/Grafer/Rådata för grafer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="646" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Rådata för brancher" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Agfa Healthcare</t>
   </si>
@@ -235,6 +235,9 @@
   <si>
     <t>Large Scale Scrum: (Hela världen)</t>
   </si>
+  <si>
+    <t>RAGE</t>
+  </si>
 </sst>
 </file>
 
@@ -292,12 +295,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9740,9 +9744,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>VersionOne!$A$1:$A$9</c:f>
+              <c:f>VersionOne!$A$1:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Scrum of Scums</c:v>
                 </c:pt>
@@ -9769,16 +9773,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>DAD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RAGE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>VersionOne!$B$1:$B$9</c:f>
+              <c:f>VersionOne!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.72</c:v>
                 </c:pt>
@@ -9804,7 +9811,10 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.05</c:v>
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17284,7 +17294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -20190,10 +20200,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20270,7 +20280,15 @@
         <v>49</v>
       </c>
       <c r="B9" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/Grafer/Rådata för grafer.xlsx
+++ b/Grafer/Rådata för grafer.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\Kandi2\Kandi2\Grafer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="646" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" tabRatio="646" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rådata för brancher" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Agfa Healthcare</t>
   </si>
@@ -243,6 +243,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,13 +298,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +673,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Brancher!$B$9</c:f>
+              <c:f>Brancher!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -713,7 +717,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Brancher!$B$10:$B$14</c:f>
+              <c:f>Brancher!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -907,6 +911,808 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Brancher!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAFe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Brancher!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Finans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tillverkning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telekom</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mjukvara</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Övriga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Brancher!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2075-4745-BEEC-D99B6E859447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Brancher!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LeSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Brancher!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Finans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tillverkning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telekom</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mjukvara</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Övriga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Brancher!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2075-4745-BEEC-D99B6E859447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="697846144"/>
+        <c:axId val="697850408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="697846144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697850408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="697850408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697846144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Brancher!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SAFe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Brancher!$A$10:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Finans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tillverkning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telekom</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mjukvara</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Övriga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Brancher!$B$10:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19230769230769232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23076923076923078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19230769230769232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26923076923076922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F089-4217-AB38-812422EBCBFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Brancher!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LeSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Brancher!$A$10:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Finans</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tillverkning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telekom</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mjukvara</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Övriga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Brancher!$C$10:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23809523809523808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5238095238095233E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23809523809523808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F089-4217-AB38-812422EBCBFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="697832696"/>
+        <c:axId val="697839256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="697832696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697839256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="697839256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="697832696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6026,7 +6832,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9529,7 +10335,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10151,6 +10957,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11197,6 +12083,1012 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11712,7 +13604,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12228,7 +14120,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12748,7 +14640,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12778,7 +14676,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12808,7 +14712,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12831,6 +14741,78 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F03D33-33F6-483D-929A-D20C3B3AD837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF43B0F-0D18-4A63-AA14-725620A2608A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12851,7 +14833,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12886,7 +14874,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12921,7 +14915,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13250,15 +15250,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13278,7 +15278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13302,7 +15302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13313,7 +15313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13324,7 +15324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13335,7 +15335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13343,7 +15343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13354,7 +15354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13362,7 +15362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -13370,7 +15370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -13378,7 +15378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -13386,7 +15386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -13397,7 +15397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -13405,7 +15405,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -13413,7 +15413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -13421,7 +15421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -13429,7 +15429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -13440,7 +15440,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -13448,7 +15448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -13456,7 +15456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -13467,7 +15467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -13483,108 +15483,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="6">
+        <f>B2/SUM(B$2:B$6)</f>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="C10" s="6">
+        <f>C2/SUM(C$2:C$6)</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="6">
+        <f t="shared" ref="B11:C14" si="0">B3/SUM(B$2:B$6)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>37</v>
       </c>
@@ -13603,20 +15649,20 @@
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -13630,7 +15676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40762</v>
       </c>
@@ -13644,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40769</v>
       </c>
@@ -13658,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40776</v>
       </c>
@@ -13672,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40783</v>
       </c>
@@ -13686,7 +15732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40790</v>
       </c>
@@ -13700,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40797</v>
       </c>
@@ -13714,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40804</v>
       </c>
@@ -13728,7 +15774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40811</v>
       </c>
@@ -13742,7 +15788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40818</v>
       </c>
@@ -13756,7 +15802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40825</v>
       </c>
@@ -13770,7 +15816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40832</v>
       </c>
@@ -13784,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40839</v>
       </c>
@@ -13798,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40846</v>
       </c>
@@ -13812,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40853</v>
       </c>
@@ -13826,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40860</v>
       </c>
@@ -13840,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40867</v>
       </c>
@@ -13854,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40874</v>
       </c>
@@ -13868,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40881</v>
       </c>
@@ -13882,7 +15928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40888</v>
       </c>
@@ -13896,7 +15942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40895</v>
       </c>
@@ -13910,7 +15956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40902</v>
       </c>
@@ -13924,7 +15970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40909</v>
       </c>
@@ -13938,7 +15984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40916</v>
       </c>
@@ -13952,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40923</v>
       </c>
@@ -13966,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40930</v>
       </c>
@@ -13980,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40937</v>
       </c>
@@ -13994,7 +16040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40944</v>
       </c>
@@ -14008,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40951</v>
       </c>
@@ -14022,7 +16068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40958</v>
       </c>
@@ -14036,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40965</v>
       </c>
@@ -14050,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40972</v>
       </c>
@@ -14064,7 +16110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40979</v>
       </c>
@@ -14078,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40986</v>
       </c>
@@ -14092,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40993</v>
       </c>
@@ -14106,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41000</v>
       </c>
@@ -14120,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41007</v>
       </c>
@@ -14134,7 +16180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41014</v>
       </c>
@@ -14148,7 +16194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41021</v>
       </c>
@@ -14162,7 +16208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41028</v>
       </c>
@@ -14176,7 +16222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41035</v>
       </c>
@@ -14190,7 +16236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41042</v>
       </c>
@@ -14204,7 +16250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41049</v>
       </c>
@@ -14218,7 +16264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41056</v>
       </c>
@@ -14232,7 +16278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41063</v>
       </c>
@@ -14246,7 +16292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41070</v>
       </c>
@@ -14260,7 +16306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>41077</v>
       </c>
@@ -14274,7 +16320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>41084</v>
       </c>
@@ -14288,7 +16334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>41091</v>
       </c>
@@ -14302,7 +16348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>41098</v>
       </c>
@@ -14316,7 +16362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>41105</v>
       </c>
@@ -14330,7 +16376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41112</v>
       </c>
@@ -14344,7 +16390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>41119</v>
       </c>
@@ -14358,7 +16404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>41126</v>
       </c>
@@ -14372,7 +16418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41133</v>
       </c>
@@ -14386,7 +16432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41140</v>
       </c>
@@ -14400,7 +16446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41147</v>
       </c>
@@ -14414,7 +16460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41154</v>
       </c>
@@ -14428,7 +16474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41161</v>
       </c>
@@ -14442,7 +16488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41168</v>
       </c>
@@ -14456,7 +16502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41175</v>
       </c>
@@ -14470,7 +16516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41182</v>
       </c>
@@ -14484,7 +16530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41189</v>
       </c>
@@ -14498,7 +16544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41196</v>
       </c>
@@ -14512,7 +16558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41203</v>
       </c>
@@ -14526,7 +16572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41210</v>
       </c>
@@ -14540,7 +16586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41217</v>
       </c>
@@ -14554,7 +16600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41224</v>
       </c>
@@ -14568,7 +16614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41231</v>
       </c>
@@ -14582,7 +16628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41238</v>
       </c>
@@ -14596,7 +16642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41245</v>
       </c>
@@ -14610,7 +16656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41252</v>
       </c>
@@ -14624,7 +16670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41259</v>
       </c>
@@ -14638,7 +16684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41266</v>
       </c>
@@ -14652,7 +16698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41273</v>
       </c>
@@ -14666,7 +16712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41280</v>
       </c>
@@ -14680,7 +16726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41287</v>
       </c>
@@ -14694,7 +16740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41294</v>
       </c>
@@ -14708,7 +16754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41301</v>
       </c>
@@ -14722,7 +16768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41308</v>
       </c>
@@ -14736,7 +16782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41315</v>
       </c>
@@ -14750,7 +16796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41322</v>
       </c>
@@ -14764,7 +16810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41329</v>
       </c>
@@ -14778,7 +16824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41336</v>
       </c>
@@ -14792,7 +16838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41343</v>
       </c>
@@ -14806,7 +16852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41350</v>
       </c>
@@ -14820,7 +16866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41357</v>
       </c>
@@ -14834,7 +16880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41364</v>
       </c>
@@ -14848,7 +16894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>41371</v>
       </c>
@@ -14862,7 +16908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>41378</v>
       </c>
@@ -14876,7 +16922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>41385</v>
       </c>
@@ -14890,7 +16936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>41392</v>
       </c>
@@ -14904,7 +16950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>41399</v>
       </c>
@@ -14918,7 +16964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>41406</v>
       </c>
@@ -14932,7 +16978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41413</v>
       </c>
@@ -14946,7 +16992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>41420</v>
       </c>
@@ -14960,7 +17006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>41427</v>
       </c>
@@ -14974,7 +17020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>41434</v>
       </c>
@@ -14988,7 +17034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>41441</v>
       </c>
@@ -15002,7 +17048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>41448</v>
       </c>
@@ -15016,7 +17062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>41455</v>
       </c>
@@ -15030,7 +17076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>41462</v>
       </c>
@@ -15044,7 +17090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>41469</v>
       </c>
@@ -15058,7 +17104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>41476</v>
       </c>
@@ -15072,7 +17118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>41483</v>
       </c>
@@ -15086,7 +17132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>41490</v>
       </c>
@@ -15100,7 +17146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>41497</v>
       </c>
@@ -15114,7 +17160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>41504</v>
       </c>
@@ -15128,7 +17174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>41511</v>
       </c>
@@ -15142,7 +17188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>41518</v>
       </c>
@@ -15156,7 +17202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>41525</v>
       </c>
@@ -15170,7 +17216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>41532</v>
       </c>
@@ -15184,7 +17230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>41539</v>
       </c>
@@ -15198,7 +17244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>41546</v>
       </c>
@@ -15212,7 +17258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>41553</v>
       </c>
@@ -15226,7 +17272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>41560</v>
       </c>
@@ -15240,7 +17286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>41567</v>
       </c>
@@ -15254,7 +17300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>41574</v>
       </c>
@@ -15268,7 +17314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>41581</v>
       </c>
@@ -15282,7 +17328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>41588</v>
       </c>
@@ -15296,7 +17342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>41595</v>
       </c>
@@ -15310,7 +17356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>41602</v>
       </c>
@@ -15324,7 +17370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>41609</v>
       </c>
@@ -15338,7 +17384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>41616</v>
       </c>
@@ -15352,7 +17398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>41623</v>
       </c>
@@ -15366,7 +17412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>41630</v>
       </c>
@@ -15380,7 +17426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>41637</v>
       </c>
@@ -15394,7 +17440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>41644</v>
       </c>
@@ -15408,7 +17454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>41651</v>
       </c>
@@ -15422,7 +17468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>41658</v>
       </c>
@@ -15436,7 +17482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>41665</v>
       </c>
@@ -15450,7 +17496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>41672</v>
       </c>
@@ -15464,7 +17510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>41679</v>
       </c>
@@ -15478,7 +17524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>41686</v>
       </c>
@@ -15492,7 +17538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>41693</v>
       </c>
@@ -15506,7 +17552,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>41700</v>
       </c>
@@ -15520,7 +17566,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>41707</v>
       </c>
@@ -15534,7 +17580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>41714</v>
       </c>
@@ -15548,7 +17594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>41721</v>
       </c>
@@ -15562,7 +17608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>41728</v>
       </c>
@@ -15576,7 +17622,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>41735</v>
       </c>
@@ -15590,7 +17636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>41742</v>
       </c>
@@ -15604,7 +17650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>41749</v>
       </c>
@@ -15618,7 +17664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>41756</v>
       </c>
@@ -15632,7 +17678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>41763</v>
       </c>
@@ -15646,7 +17692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>41770</v>
       </c>
@@ -15660,7 +17706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>41777</v>
       </c>
@@ -15674,7 +17720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>41784</v>
       </c>
@@ -15688,7 +17734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>41791</v>
       </c>
@@ -15702,7 +17748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>41798</v>
       </c>
@@ -15716,7 +17762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>41805</v>
       </c>
@@ -15730,7 +17776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>41812</v>
       </c>
@@ -15744,7 +17790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>41819</v>
       </c>
@@ -15758,7 +17804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>41826</v>
       </c>
@@ -15772,7 +17818,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>41833</v>
       </c>
@@ -15786,7 +17832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>41840</v>
       </c>
@@ -15800,7 +17846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>41847</v>
       </c>
@@ -15814,7 +17860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>41854</v>
       </c>
@@ -15828,7 +17874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>41861</v>
       </c>
@@ -15842,7 +17888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>41868</v>
       </c>
@@ -15856,7 +17902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>41875</v>
       </c>
@@ -15870,7 +17916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>41882</v>
       </c>
@@ -15884,7 +17930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>41889</v>
       </c>
@@ -15898,7 +17944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>41896</v>
       </c>
@@ -15912,7 +17958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>41903</v>
       </c>
@@ -15926,7 +17972,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>41910</v>
       </c>
@@ -15940,7 +17986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>41917</v>
       </c>
@@ -15954,7 +18000,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>41924</v>
       </c>
@@ -15968,7 +18014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>41931</v>
       </c>
@@ -15982,7 +18028,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>41938</v>
       </c>
@@ -15996,7 +18042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>41945</v>
       </c>
@@ -16010,7 +18056,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>41952</v>
       </c>
@@ -16024,7 +18070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>41959</v>
       </c>
@@ -16038,7 +18084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>41966</v>
       </c>
@@ -16052,7 +18098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>41973</v>
       </c>
@@ -16066,7 +18112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>41980</v>
       </c>
@@ -16080,7 +18126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>41987</v>
       </c>
@@ -16094,7 +18140,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>41994</v>
       </c>
@@ -16108,7 +18154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42001</v>
       </c>
@@ -16122,7 +18168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42008</v>
       </c>
@@ -16136,7 +18182,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42015</v>
       </c>
@@ -16150,7 +18196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42022</v>
       </c>
@@ -16164,7 +18210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42029</v>
       </c>
@@ -16178,7 +18224,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42036</v>
       </c>
@@ -16192,7 +18238,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42043</v>
       </c>
@@ -16206,7 +18252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>42050</v>
       </c>
@@ -16220,7 +18266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>42057</v>
       </c>
@@ -16234,7 +18280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>42064</v>
       </c>
@@ -16248,7 +18294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>42071</v>
       </c>
@@ -16262,7 +18308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>42078</v>
       </c>
@@ -16276,7 +18322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>42085</v>
       </c>
@@ -16290,7 +18336,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>42092</v>
       </c>
@@ -16304,7 +18350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>42099</v>
       </c>
@@ -16318,7 +18364,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>42106</v>
       </c>
@@ -16332,7 +18378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>42113</v>
       </c>
@@ -16346,7 +18392,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>42120</v>
       </c>
@@ -16360,7 +18406,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>42127</v>
       </c>
@@ -16374,7 +18420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>42134</v>
       </c>
@@ -16388,7 +18434,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>42141</v>
       </c>
@@ -16402,7 +18448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>42148</v>
       </c>
@@ -16416,7 +18462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>42155</v>
       </c>
@@ -16430,7 +18476,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>42162</v>
       </c>
@@ -16444,7 +18490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>42169</v>
       </c>
@@ -16458,7 +18504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>42176</v>
       </c>
@@ -16472,7 +18518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>42183</v>
       </c>
@@ -16486,7 +18532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>42190</v>
       </c>
@@ -16500,7 +18546,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>42197</v>
       </c>
@@ -16514,7 +18560,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>42204</v>
       </c>
@@ -16528,7 +18574,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>42211</v>
       </c>
@@ -16542,7 +18588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>42218</v>
       </c>
@@ -16556,7 +18602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>42225</v>
       </c>
@@ -16570,7 +18616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>42232</v>
       </c>
@@ -16584,7 +18630,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>42239</v>
       </c>
@@ -16598,7 +18644,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>42246</v>
       </c>
@@ -16612,7 +18658,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>42253</v>
       </c>
@@ -16626,7 +18672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>42260</v>
       </c>
@@ -16640,7 +18686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>42267</v>
       </c>
@@ -16654,7 +18700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>42274</v>
       </c>
@@ -16668,7 +18714,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>42281</v>
       </c>
@@ -16682,7 +18728,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>42288</v>
       </c>
@@ -16696,7 +18742,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>42295</v>
       </c>
@@ -16710,7 +18756,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>42302</v>
       </c>
@@ -16724,7 +18770,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>42309</v>
       </c>
@@ -16738,7 +18784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>42316</v>
       </c>
@@ -16752,7 +18798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>42323</v>
       </c>
@@ -16766,7 +18812,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>42330</v>
       </c>
@@ -16780,7 +18826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>42337</v>
       </c>
@@ -16794,7 +18840,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>42344</v>
       </c>
@@ -16808,7 +18854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>42351</v>
       </c>
@@ -16822,7 +18868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>42358</v>
       </c>
@@ -16836,7 +18882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>42365</v>
       </c>
@@ -16850,7 +18896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>42372</v>
       </c>
@@ -16864,7 +18910,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>42379</v>
       </c>
@@ -16878,7 +18924,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>42386</v>
       </c>
@@ -16892,7 +18938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>42393</v>
       </c>
@@ -16906,7 +18952,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>42400</v>
       </c>
@@ -16920,7 +18966,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>42407</v>
       </c>
@@ -16934,7 +18980,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>42414</v>
       </c>
@@ -16948,7 +18994,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>42421</v>
       </c>
@@ -16962,7 +19008,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>42428</v>
       </c>
@@ -16976,7 +19022,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>42435</v>
       </c>
@@ -16990,7 +19036,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>42442</v>
       </c>
@@ -17004,7 +19050,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>42449</v>
       </c>
@@ -17018,7 +19064,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>42456</v>
       </c>
@@ -17032,7 +19078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>42463</v>
       </c>
@@ -17046,7 +19092,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>42470</v>
       </c>
@@ -17060,7 +19106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>42477</v>
       </c>
@@ -17074,7 +19120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>42484</v>
       </c>
@@ -17088,7 +19134,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>42491</v>
       </c>
@@ -17102,7 +19148,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>42498</v>
       </c>
@@ -17116,7 +19162,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>42505</v>
       </c>
@@ -17130,7 +19176,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>42512</v>
       </c>
@@ -17144,7 +19190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>42519</v>
       </c>
@@ -17158,7 +19204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>42526</v>
       </c>
@@ -17172,7 +19218,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>42533</v>
       </c>
@@ -17186,7 +19232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>42540</v>
       </c>
@@ -17200,7 +19246,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>42547</v>
       </c>
@@ -17214,7 +19260,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>42554</v>
       </c>
@@ -17228,7 +19274,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>42561</v>
       </c>
@@ -17242,7 +19288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>42568</v>
       </c>
@@ -17256,7 +19302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>42575</v>
       </c>
@@ -17270,7 +19316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>42582</v>
       </c>
@@ -17298,19 +19344,19 @@
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -17321,7 +19367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40769</v>
       </c>
@@ -17332,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40776</v>
       </c>
@@ -17343,7 +19389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40783</v>
       </c>
@@ -17354,7 +19400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40790</v>
       </c>
@@ -17365,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40797</v>
       </c>
@@ -17376,7 +19422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40804</v>
       </c>
@@ -17387,7 +19433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40811</v>
       </c>
@@ -17398,7 +19444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40818</v>
       </c>
@@ -17409,7 +19455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40825</v>
       </c>
@@ -17420,7 +19466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40832</v>
       </c>
@@ -17431,7 +19477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40839</v>
       </c>
@@ -17442,7 +19488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40846</v>
       </c>
@@ -17453,7 +19499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40853</v>
       </c>
@@ -17464,7 +19510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40860</v>
       </c>
@@ -17475,7 +19521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40867</v>
       </c>
@@ -17486,7 +19532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40874</v>
       </c>
@@ -17497,7 +19543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40881</v>
       </c>
@@ -17508,7 +19554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40888</v>
       </c>
@@ -17519,7 +19565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40895</v>
       </c>
@@ -17530,7 +19576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40902</v>
       </c>
@@ -17541,7 +19587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40909</v>
       </c>
@@ -17552,7 +19598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40916</v>
       </c>
@@ -17563,7 +19609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40923</v>
       </c>
@@ -17574,7 +19620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40930</v>
       </c>
@@ -17585,7 +19631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40937</v>
       </c>
@@ -17596,7 +19642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40944</v>
       </c>
@@ -17607,7 +19653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40951</v>
       </c>
@@ -17618,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40958</v>
       </c>
@@ -17629,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40965</v>
       </c>
@@ -17640,7 +19686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40972</v>
       </c>
@@ -17651,7 +19697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40979</v>
       </c>
@@ -17662,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40986</v>
       </c>
@@ -17673,7 +19719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40993</v>
       </c>
@@ -17684,7 +19730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>41000</v>
       </c>
@@ -17695,7 +19741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41007</v>
       </c>
@@ -17706,7 +19752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41014</v>
       </c>
@@ -17717,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>41021</v>
       </c>
@@ -17728,7 +19774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41028</v>
       </c>
@@ -17739,7 +19785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41035</v>
       </c>
@@ -17750,7 +19796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41042</v>
       </c>
@@ -17761,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41049</v>
       </c>
@@ -17772,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>41056</v>
       </c>
@@ -17783,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>41063</v>
       </c>
@@ -17794,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>41070</v>
       </c>
@@ -17805,7 +19851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41077</v>
       </c>
@@ -17816,7 +19862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>41084</v>
       </c>
@@ -17827,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>41091</v>
       </c>
@@ -17838,7 +19884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>41098</v>
       </c>
@@ -17849,7 +19895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>41105</v>
       </c>
@@ -17860,7 +19906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>41112</v>
       </c>
@@ -17871,7 +19917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>41119</v>
       </c>
@@ -17882,7 +19928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>41126</v>
       </c>
@@ -17893,7 +19939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>41133</v>
       </c>
@@ -17904,7 +19950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>41140</v>
       </c>
@@ -17915,7 +19961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>41147</v>
       </c>
@@ -17926,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>41154</v>
       </c>
@@ -17937,7 +19983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>41161</v>
       </c>
@@ -17948,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>41168</v>
       </c>
@@ -17959,7 +20005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41175</v>
       </c>
@@ -17970,7 +20016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>41182</v>
       </c>
@@ -17981,7 +20027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>41189</v>
       </c>
@@ -17992,7 +20038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>41196</v>
       </c>
@@ -18003,7 +20049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>41203</v>
       </c>
@@ -18014,7 +20060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>41210</v>
       </c>
@@ -18025,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>41217</v>
       </c>
@@ -18036,7 +20082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>41224</v>
       </c>
@@ -18047,7 +20093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>41231</v>
       </c>
@@ -18058,7 +20104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>41238</v>
       </c>
@@ -18069,7 +20115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>41245</v>
       </c>
@@ -18080,7 +20126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>41252</v>
       </c>
@@ -18091,7 +20137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41259</v>
       </c>
@@ -18102,7 +20148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>41266</v>
       </c>
@@ -18113,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>41273</v>
       </c>
@@ -18124,7 +20170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41280</v>
       </c>
@@ -18135,7 +20181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41287</v>
       </c>
@@ -18146,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41294</v>
       </c>
@@ -18157,7 +20203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41301</v>
       </c>
@@ -18168,7 +20214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41308</v>
       </c>
@@ -18179,7 +20225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41315</v>
       </c>
@@ -18190,7 +20236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41322</v>
       </c>
@@ -18201,7 +20247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41329</v>
       </c>
@@ -18212,7 +20258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41336</v>
       </c>
@@ -18223,7 +20269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41343</v>
       </c>
@@ -18234,7 +20280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41350</v>
       </c>
@@ -18245,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41357</v>
       </c>
@@ -18256,7 +20302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41364</v>
       </c>
@@ -18267,7 +20313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41371</v>
       </c>
@@ -18278,7 +20324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>41378</v>
       </c>
@@ -18289,7 +20335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>41385</v>
       </c>
@@ -18300,7 +20346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>41392</v>
       </c>
@@ -18311,7 +20357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>41399</v>
       </c>
@@ -18322,7 +20368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>41406</v>
       </c>
@@ -18333,7 +20379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>41413</v>
       </c>
@@ -18344,7 +20390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41420</v>
       </c>
@@ -18355,7 +20401,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>41427</v>
       </c>
@@ -18366,7 +20412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>41434</v>
       </c>
@@ -18377,7 +20423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>41441</v>
       </c>
@@ -18388,7 +20434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>41448</v>
       </c>
@@ -18399,7 +20445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>41455</v>
       </c>
@@ -18410,7 +20456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>41462</v>
       </c>
@@ -18421,7 +20467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>41469</v>
       </c>
@@ -18432,7 +20478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>41476</v>
       </c>
@@ -18443,7 +20489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>41483</v>
       </c>
@@ -18454,7 +20500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>41490</v>
       </c>
@@ -18465,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>41497</v>
       </c>
@@ -18476,7 +20522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>41504</v>
       </c>
@@ -18487,7 +20533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>41511</v>
       </c>
@@ -18498,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>41518</v>
       </c>
@@ -18509,7 +20555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>41525</v>
       </c>
@@ -18520,7 +20566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>41532</v>
       </c>
@@ -18531,7 +20577,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>41539</v>
       </c>
@@ -18542,7 +20588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>41546</v>
       </c>
@@ -18553,7 +20599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>41553</v>
       </c>
@@ -18564,7 +20610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>41560</v>
       </c>
@@ -18575,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>41567</v>
       </c>
@@ -18586,7 +20632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>41574</v>
       </c>
@@ -18597,7 +20643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>41581</v>
       </c>
@@ -18608,7 +20654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>41588</v>
       </c>
@@ -18619,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>41595</v>
       </c>
@@ -18630,7 +20676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>41602</v>
       </c>
@@ -18641,7 +20687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>41609</v>
       </c>
@@ -18652,7 +20698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>41616</v>
       </c>
@@ -18663,7 +20709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>41623</v>
       </c>
@@ -18674,7 +20720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>41630</v>
       </c>
@@ -18685,7 +20731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>41637</v>
       </c>
@@ -18696,7 +20742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>41644</v>
       </c>
@@ -18707,7 +20753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>41651</v>
       </c>
@@ -18718,7 +20764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>41658</v>
       </c>
@@ -18729,7 +20775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>41665</v>
       </c>
@@ -18740,7 +20786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>41672</v>
       </c>
@@ -18751,7 +20797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>41679</v>
       </c>
@@ -18762,7 +20808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>41686</v>
       </c>
@@ -18773,7 +20819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>41693</v>
       </c>
@@ -18784,7 +20830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>41700</v>
       </c>
@@ -18795,7 +20841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>41707</v>
       </c>
@@ -18806,7 +20852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>41714</v>
       </c>
@@ -18817,7 +20863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>41721</v>
       </c>
@@ -18828,7 +20874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>41728</v>
       </c>
@@ -18839,7 +20885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>41735</v>
       </c>
@@ -18850,7 +20896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>41742</v>
       </c>
@@ -18861,7 +20907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>41749</v>
       </c>
@@ -18872,7 +20918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>41756</v>
       </c>
@@ -18883,7 +20929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>41763</v>
       </c>
@@ -18894,7 +20940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>41770</v>
       </c>
@@ -18905,7 +20951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>41777</v>
       </c>
@@ -18916,7 +20962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>41784</v>
       </c>
@@ -18927,7 +20973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>41791</v>
       </c>
@@ -18938,7 +20984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>41798</v>
       </c>
@@ -18949,7 +20995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>41805</v>
       </c>
@@ -18960,7 +21006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>41812</v>
       </c>
@@ -18971,7 +21017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>41819</v>
       </c>
@@ -18982,7 +21028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>41826</v>
       </c>
@@ -18993,7 +21039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>41833</v>
       </c>
@@ -19004,7 +21050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>41840</v>
       </c>
@@ -19015,7 +21061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>41847</v>
       </c>
@@ -19026,7 +21072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>41854</v>
       </c>
@@ -19037,7 +21083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>41861</v>
       </c>
@@ -19048,7 +21094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>41868</v>
       </c>
@@ -19059,7 +21105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>41875</v>
       </c>
@@ -19070,7 +21116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>41882</v>
       </c>
@@ -19081,7 +21127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>41889</v>
       </c>
@@ -19092,7 +21138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>41896</v>
       </c>
@@ -19103,7 +21149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>41903</v>
       </c>
@@ -19114,7 +21160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>41910</v>
       </c>
@@ -19125,7 +21171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>41917</v>
       </c>
@@ -19136,7 +21182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>41924</v>
       </c>
@@ -19147,7 +21193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>41931</v>
       </c>
@@ -19158,7 +21204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>41938</v>
       </c>
@@ -19169,7 +21215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>41945</v>
       </c>
@@ -19180,7 +21226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>41952</v>
       </c>
@@ -19191,7 +21237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>41959</v>
       </c>
@@ -19202,7 +21248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>41966</v>
       </c>
@@ -19213,7 +21259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>41973</v>
       </c>
@@ -19224,7 +21270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>41980</v>
       </c>
@@ -19235,7 +21281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>41987</v>
       </c>
@@ -19246,7 +21292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>41994</v>
       </c>
@@ -19257,7 +21303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>42001</v>
       </c>
@@ -19268,7 +21314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42008</v>
       </c>
@@ -19279,7 +21325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42015</v>
       </c>
@@ -19290,7 +21336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42022</v>
       </c>
@@ -19301,7 +21347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42029</v>
       </c>
@@ -19312,7 +21358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42036</v>
       </c>
@@ -19323,7 +21369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42043</v>
       </c>
@@ -19334,7 +21380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42050</v>
       </c>
@@ -19345,7 +21391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>42057</v>
       </c>
@@ -19356,7 +21402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>42064</v>
       </c>
@@ -19367,7 +21413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>42071</v>
       </c>
@@ -19378,7 +21424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>42078</v>
       </c>
@@ -19389,7 +21435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>42085</v>
       </c>
@@ -19400,7 +21446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>42092</v>
       </c>
@@ -19411,7 +21457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>42099</v>
       </c>
@@ -19422,7 +21468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>42106</v>
       </c>
@@ -19433,7 +21479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>42113</v>
       </c>
@@ -19444,7 +21490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>42120</v>
       </c>
@@ -19455,7 +21501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>42127</v>
       </c>
@@ -19466,7 +21512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>42134</v>
       </c>
@@ -19477,7 +21523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>42141</v>
       </c>
@@ -19488,7 +21534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>42148</v>
       </c>
@@ -19499,7 +21545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>42155</v>
       </c>
@@ -19510,7 +21556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>42162</v>
       </c>
@@ -19521,7 +21567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>42169</v>
       </c>
@@ -19532,7 +21578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>42176</v>
       </c>
@@ -19543,7 +21589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>42183</v>
       </c>
@@ -19554,7 +21600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>42190</v>
       </c>
@@ -19565,7 +21611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>42197</v>
       </c>
@@ -19576,7 +21622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>42204</v>
       </c>
@@ -19587,7 +21633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>42211</v>
       </c>
@@ -19598,7 +21644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>42218</v>
       </c>
@@ -19609,7 +21655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>42225</v>
       </c>
@@ -19620,7 +21666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>42232</v>
       </c>
@@ -19631,7 +21677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>42239</v>
       </c>
@@ -19642,7 +21688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>42246</v>
       </c>
@@ -19653,7 +21699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>42253</v>
       </c>
@@ -19664,7 +21710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>42260</v>
       </c>
@@ -19675,7 +21721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>42267</v>
       </c>
@@ -19686,7 +21732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>42274</v>
       </c>
@@ -19697,7 +21743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>42281</v>
       </c>
@@ -19708,7 +21754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>42288</v>
       </c>
@@ -19719,7 +21765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>42295</v>
       </c>
@@ -19730,7 +21776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>42302</v>
       </c>
@@ -19741,7 +21787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>42309</v>
       </c>
@@ -19752,7 +21798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>42316</v>
       </c>
@@ -19763,7 +21809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>42323</v>
       </c>
@@ -19774,7 +21820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>42330</v>
       </c>
@@ -19785,7 +21831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>42337</v>
       </c>
@@ -19796,7 +21842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>42344</v>
       </c>
@@ -19807,7 +21853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>42351</v>
       </c>
@@ -19818,7 +21864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>42358</v>
       </c>
@@ -19829,7 +21875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>42365</v>
       </c>
@@ -19840,7 +21886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>42372</v>
       </c>
@@ -19851,7 +21897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>42379</v>
       </c>
@@ -19862,7 +21908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>42386</v>
       </c>
@@ -19873,7 +21919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>42393</v>
       </c>
@@ -19884,7 +21930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>42400</v>
       </c>
@@ -19895,7 +21941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>42407</v>
       </c>
@@ -19906,7 +21952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>42414</v>
       </c>
@@ -19917,7 +21963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>42421</v>
       </c>
@@ -19928,7 +21974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>42428</v>
       </c>
@@ -19939,7 +21985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>42435</v>
       </c>
@@ -19950,7 +21996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>42442</v>
       </c>
@@ -19961,7 +22007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>42449</v>
       </c>
@@ -19972,7 +22018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>42456</v>
       </c>
@@ -19983,7 +22029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>42463</v>
       </c>
@@ -19994,7 +22040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>42470</v>
       </c>
@@ -20005,7 +22051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>42477</v>
       </c>
@@ -20016,7 +22062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>42484</v>
       </c>
@@ -20027,7 +22073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>42491</v>
       </c>
@@ -20038,7 +22084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>42498</v>
       </c>
@@ -20049,7 +22095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>42505</v>
       </c>
@@ -20060,7 +22106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>42512</v>
       </c>
@@ -20071,7 +22117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>42519</v>
       </c>
@@ -20082,7 +22128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>42526</v>
       </c>
@@ -20093,7 +22139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>42533</v>
       </c>
@@ -20104,7 +22150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>42540</v>
       </c>
@@ -20115,7 +22161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>42547</v>
       </c>
@@ -20126,7 +22172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>42554</v>
       </c>
@@ -20137,7 +22183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>42561</v>
       </c>
@@ -20148,7 +22194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>42568</v>
       </c>
@@ -20159,7 +22205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>42575</v>
       </c>
@@ -20170,7 +22216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>42582</v>
       </c>
@@ -20181,7 +22227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>42589</v>
       </c>
@@ -20202,16 +22248,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -20219,7 +22265,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -20227,7 +22273,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -20235,7 +22281,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -20243,7 +22289,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -20251,7 +22297,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -20259,7 +22305,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -20267,7 +22313,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -20275,7 +22321,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -20283,7 +22329,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -20303,15 +22349,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
@@ -20319,12 +22365,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
@@ -20335,7 +22381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -20346,7 +22392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
